--- a/SequentialTest/design.xlsx
+++ b/SequentialTest/design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>■「一連動作テスト」簡易設計</t>
   </si>
@@ -190,6 +190,27 @@
     </r>
   </si>
   <si>
+    <t>5.データ取得の項目選択で、データ取得画面を起動</t>
+  </si>
+  <si>
+    <t>・「一連動作テスト」データ取得画面</t>
+  </si>
+  <si>
+    <t>1.CurrentTime,Battery,BloodPressure等の簡易結果をリスト表示する</t>
+  </si>
+  <si>
+    <t>2.BloodPressure,WeightScaleの項目選択で、詳細結果画面を起動する。</t>
+  </si>
+  <si>
+    <t>★UDS Onlyの場合は個人情報のみ表示。</t>
+  </si>
+  <si>
+    <t>・「一連動作テスト」データ取得詳細画面</t>
+  </si>
+  <si>
+    <t>1.CurrentTime,Battery,BloodPressure等の詳細結果をリスト表示する</t>
+  </si>
+  <si>
     <t>・「一連動作テスト」をバックグランドで実行するサービス</t>
   </si>
   <si>
@@ -573,6 +594,41 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">読み書きの通知リスナはbaseクラスでstaticで用意。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">継承した各クラスで、自分が処理すべき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">であるかを判別し、</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">★characterstic</t>
     </r>
     <r>
@@ -584,6 +640,9 @@
       </rPr>
       <t xml:space="preserve">読み書き時のエラー、認証自体の結果</t>
     </r>
+  </si>
+  <si>
+    <t>通知する。</t>
   </si>
   <si>
     <r>
@@ -871,52 +930,22 @@
   <si>
     <t>CurrentTime
 Battery
-BloodPressure
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurrentTime
+BloodPressure</t>
+  </si>
+  <si>
+    <t>CurrentTime
 Battery
 UserControlPoint
 Record Access Control Point
+BloodPressure</t>
+  </si>
+  <si>
+    <t>CurrentTime
+Battery
+UserControlPoint
+Record Access Control Point
+BloodPressure
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BloodPressure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurrentTime
-Battery
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UserControlPoint
-Record Access Control Point
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BloodPressure
-</t>
-    </r>
   </si>
   <si>
     <t>UserControlPoint</t>
@@ -928,93 +957,73 @@
 Body Composition</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CurrentTime
+    <t>CurrentTime
 Battery
 UserControlPoint
 Record Access Control Point
+WeightScale additional</t>
+  </si>
+  <si>
+    <t>CurrentTime
+Battery
+UserControlPoint
+Record Access Control Point
+WeightScale additional
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WeightScale additional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurrentTime
-Battery
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UserControlPoint
-Record Access Control Point
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WeightScale additional
-</t>
-    </r>
   </si>
   <si>
     <t>クラス</t>
   </si>
   <si>
-    <t>「一連動作テスト」開始画面 </t>
+    <t>「一連動作テスト」開始画面</t>
   </si>
   <si>
     <t>SequentialTestFragment</t>
   </si>
   <si>
-    <t>「一連動作テスト」実施中画面 </t>
-  </si>
-  <si>
-    <t>SequentialTestResultViewerFragment</t>
-  </si>
-  <si>
-    <t>「一連動作テスト」をバックグランドで実行するサービス </t>
+    <t>「一連動作テスト」実施中画面</t>
+  </si>
+  <si>
+    <t>SequentialTestStateListFragment</t>
+  </si>
+  <si>
+    <t>「一連動作テスト」データ取得画面</t>
+  </si>
+  <si>
+    <t>SequentialTestDataFragment</t>
+  </si>
+  <si>
+    <t>「一連動作テスト」データ取得詳細画面</t>
+  </si>
+  <si>
+    <t>SequentialTestDataDetailFragment</t>
+  </si>
+  <si>
+    <t>「一連動作テスト」をバックグランドで実行するサービス</t>
   </si>
   <si>
     <t>SequentialTestBackgroundService</t>
   </si>
   <si>
-    <t>「一連動作テスト」の各タスクを管理・順次実施するクラス </t>
+    <t>「一連動作テスト」の各タスクを管理・順次実施するクラス</t>
   </si>
   <si>
     <t>SequentialTaskManager</t>
   </si>
   <si>
-    <t>「一連動作テスト」の各タスク　 </t>
+    <t>「一連動作テスト」の各タスク　</t>
   </si>
   <si>
     <t>SequentialTaskBase</t>
   </si>
   <si>
-    <t>・アドバタイズパケット解析 </t>
-  </si>
-  <si>
     <t>SequentialTaskScan</t>
   </si>
   <si>
     <t>SequentialTaskConnect</t>
   </si>
   <si>
-    <t>・CCCD書き込み </t>
+    <t>・CCCD書き込み</t>
   </si>
   <si>
     <t>SequentialTaskWriteCCCD</t>
@@ -1029,15 +1038,13 @@
         <color rgb="FF000000"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">読み書き</t>
     </r>
   </si>
   <si>
     <t>SequentialTaskAuthentication</t>
-  </si>
-  <si>
-    <t>・データ取得 </t>
   </si>
   <si>
     <t>SequentialTaskGetData</t>
@@ -1114,16 +1121,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="TakaoPGothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1132,6 +1129,16 @@
       <color rgb="FF000000"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1183,12 +1190,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,7 +1215,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,16 +1239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>83160</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1246,7 +1257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="439560" y="6517440"/>
+          <a:off x="466560" y="8740440"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1266,15 +1277,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>42480</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1283,8 +1294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466200" y="6296760"/>
-          <a:ext cx="951120" cy="137160"/>
+          <a:off x="493200" y="8519760"/>
+          <a:ext cx="950760" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,15 +1315,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>214560</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1321,8 +1332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1432440" y="6296760"/>
-          <a:ext cx="1685880" cy="137160"/>
+          <a:off x="1459440" y="8519760"/>
+          <a:ext cx="1685520" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,16 +1352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1359,8 +1370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="665280" y="6535440"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="692280" y="8758440"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1409,15 +1420,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:colOff>203040</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1426,7 +1437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3106440" y="6519240"/>
+          <a:off x="3133440" y="8742240"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1446,15 +1457,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:colOff>215280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:colOff>38880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1463,8 +1474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3118680" y="6297840"/>
-          <a:ext cx="951120" cy="137160"/>
+          <a:off x="3145680" y="8520840"/>
+          <a:ext cx="950760" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,15 +1495,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:colOff>40680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1501,8 +1512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071240" y="6297480"/>
-          <a:ext cx="1685880" cy="137160"/>
+          <a:off x="4098240" y="8520480"/>
+          <a:ext cx="1685520" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,15 +1533,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:colOff>223200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1539,7 +1550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5764320" y="6520320"/>
+          <a:off x="5791320" y="8743320"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1559,15 +1570,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1576,8 +1587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5760360" y="6299640"/>
-          <a:ext cx="951120" cy="137160"/>
+          <a:off x="5787360" y="8522640"/>
+          <a:ext cx="950760" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,15 +1608,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:colOff>202320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:colOff>84600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1614,8 +1625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6712560" y="6297480"/>
-          <a:ext cx="1685880" cy="137160"/>
+          <a:off x="6739560" y="8520480"/>
+          <a:ext cx="1685520" cy="136800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,15 +1646,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:colOff>110520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:colOff>117360</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1652,8 +1663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3239280" y="6571440"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="3266280" y="8794440"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,15 +1713,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:colOff>70920</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1719,8 +1730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5897880" y="6537600"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="5924880" y="8760600"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,15 +1780,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:colOff>152640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:colOff>159480</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1786,8 +1797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8466120" y="6313320"/>
-          <a:ext cx="683640" cy="257760"/>
+          <a:off x="8493120" y="8536320"/>
+          <a:ext cx="683280" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,15 +1826,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>124200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>180360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1832,7 +1843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1449720" y="6517440"/>
+          <a:off x="1476720" y="8740440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1852,15 +1863,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:colOff>205560</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>212760</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,8 +1880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981800" y="6562440"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="2008800" y="8785440"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,16 +1920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1927,7 +1938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4046400" y="6517440"/>
+          <a:off x="4073400" y="8740440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1947,15 +1958,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>104040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1964,8 +1975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4578480" y="6562440"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="4605480" y="8785440"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,16 +2015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2022,7 +2033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6751440" y="6517440"/>
+          <a:off x="6778440" y="8740440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2042,15 +2053,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>104040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2059,8 +2070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7283520" y="6562440"/>
-          <a:ext cx="683640" cy="267480"/>
+          <a:off x="7310520" y="8785440"/>
+          <a:ext cx="683280" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,6 +2108,45 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248080" y="10322280"/>
+          <a:ext cx="369720" cy="3176280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800"/>
+            <a:gd name="adj2" fmla="val 10800"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2105,10 +2155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2182,23 +2232,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2207,155 +2258,132 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>25</v>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2365,64 +2393,144 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
-        <v>48</v>
+      <c r="B62" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
-        <v>51</v>
+      <c r="A66" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>52</v>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z74" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z75" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="s">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="Z76" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2440,10 +2548,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2461,131 +2569,131 @@
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>66</v>
+      <c r="F21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>78</v>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,198 +2702,214 @@
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>82</v>
+      <c r="D27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>82</v>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>92</v>
+      <c r="C33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>94</v>
+      <c r="C34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>107</v>
+        <v>60</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="5" t="s">
-        <v>114</v>
+      <c r="C49" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/SequentialTest/design.xlsx
+++ b/SequentialTest/design.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="161" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="161" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="簡易設計" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="メモ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>■「一連動作テスト」簡易設計</t>
   </si>
@@ -211,7 +212,7 @@
     <t>1.CurrentTime,Battery,BloodPressure等の詳細結果をリスト表示する</t>
   </si>
   <si>
-    <t>・「一連動作テスト」をバックグランドで実行するサービス</t>
+    <t>・「一連動作テスト」を各タスクを管理・順次実施するサービス</t>
   </si>
   <si>
     <r>
@@ -224,7 +225,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスのインスタンスを生成　※必要な各タスクの情報を渡す</t>
+      <t xml:space="preserve">各タスクを順次実施する</t>
     </r>
   </si>
   <si>
@@ -238,7 +239,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">タスク開始要求</t>
+      <t xml:space="preserve">各タスクから、実施状況の更新通知を受ける。</t>
     </r>
   </si>
   <si>
@@ -252,46 +253,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスから、各タスクの実施状況の更新通知を受ける。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">　　⇒本サービスの起動元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">本サービスの起動元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">「一連動作テスト」実施中画面</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">に更新通知を伝える</t>
     </r>
@@ -311,7 +307,10 @@
     </r>
   </si>
   <si>
-    <t>・「一連動作テスト」の各タスクを管理・順次実施するクラス</t>
+    <t>・「一連動作テスト」の各タスク　</t>
+  </si>
+  <si>
+    <t>・アドバタイズパケット解析</t>
   </si>
   <si>
     <r>
@@ -324,7 +323,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">各タスクを順次実施する</t>
+      <t xml:space="preserve">定期的にスキャンを行う。　※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">alarmManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">で実現</t>
     </r>
   </si>
   <si>
@@ -338,20 +355,57 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">各タスクから、実施状況の更新通知を受ける。</t>
-    </r>
-  </si>
-  <si>
-    <t>　　⇒次に行うタスクを実施、全タスク完了を判別する。</t>
-  </si>
-  <si>
-    <t>　　⇒本クラスの生成元に更新通知を伝える</t>
-  </si>
-  <si>
-    <t>・「一連動作テスト」の各タスク　</t>
-  </si>
-  <si>
-    <t>・アドバタイズパケット解析</t>
+      <t xml:space="preserve">アドバタイズパケットを受信したら、接続要否を判別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">要接続と判別したら、タスク終了</t>
+    </r>
+  </si>
+  <si>
+    <t>　　⇒「一連動作テスト」の各タスクを管理・順次実施するクラスに、結果を通知</t>
+  </si>
+  <si>
+    <t>★要接続と判別するまで永続的に動作する</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">●機器、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UserIndex,SequenceNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の情報が必要</t>
+    </r>
+  </si>
+  <si>
+    <t>▲通知する結果の内容：要接続の機器情報</t>
+  </si>
+  <si>
+    <t>・接続</t>
   </si>
   <si>
     <r>
@@ -364,7 +418,35 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">定期的にスキャンを行う。　※</t>
+      <t xml:space="preserve">機器に接続する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスに、接続結果を通知</t>
+    </r>
+  </si>
+  <si>
+    <t>★接続時のエラー</t>
+  </si>
+  <si>
+    <t>●機器の情報が必要</t>
+  </si>
+  <si>
+    <t>▲通知する結果の内容：接続成功・失敗要因</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・</t>
     </r>
     <r>
       <rPr>
@@ -373,16 +455,48 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">alarmManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">で実現</t>
+      <t xml:space="preserve">CCCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">書き込み</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">機器、接続モードから、必要となる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CCCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">書き込みを行う。</t>
     </r>
   </si>
   <si>
@@ -396,32 +510,65 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">アドバタイズパケットを受信したら、接続要否を判別</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">要接続と判別したら、タスク終了</t>
-    </r>
-  </si>
-  <si>
-    <t>　　⇒「一連動作テスト」の各タスクを管理・順次実施するクラスに、結果を通知</t>
-  </si>
-  <si>
-    <t>★要接続と判別するまで永続的に動作する</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">●機器、</t>
+      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスに、結果を通知</t>
+    </r>
+  </si>
+  <si>
+    <t>★必要となるserviceがサポートされていない場合のエラー</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">★characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">読み書き時のエラー</t>
+    </r>
+  </si>
+  <si>
+    <t>●機器、接続モードの情報が必要</t>
+  </si>
+  <si>
+    <t>・認証</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.UserIndex, ConsentCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">を用いて、認証を行う。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">読み書きの通知リスナはbaseクラスでstaticで用意。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">継承した各クラスで、自分が処理すべき</t>
     </r>
     <r>
       <rPr>
@@ -430,7 +577,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">UserIndex,SequenceNo</t>
+      <t xml:space="preserve">characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">であるかを判別し、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">★characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">読み書き時のエラー、認証自体の結果</t>
+    </r>
+  </si>
+  <si>
+    <t>通知する。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">●UserIndex, ConsentCode</t>
     </r>
     <r>
       <rPr>
@@ -443,51 +621,23 @@
     </r>
   </si>
   <si>
-    <t>▲通知する結果の内容：要接続の機器情報</t>
-  </si>
-  <si>
-    <t>・接続</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">機器に接続する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスに、接続結果を通知</t>
-    </r>
-  </si>
-  <si>
-    <t>★接続時のエラー</t>
-  </si>
-  <si>
-    <t>●機器の情報が必要</t>
-  </si>
-  <si>
-    <t>▲通知する結果の内容：接続成功・失敗要因</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・</t>
+    <t>▲通知する結果の内容：認証成功or失敗、失敗要因</t>
+  </si>
+  <si>
+    <t>・データ取得</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">★CCCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">書き込みにより、</t>
     </r>
     <r>
       <rPr>
@@ -496,6 +646,182 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">indicate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">で通知される</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STP+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の場合は、アプリ側から取得要求が必要？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">★characterstic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">読み書き時のエラー</t>
+    </r>
+  </si>
+  <si>
+    <t>▲通知する結果の内容：取得データ、取得成功、失敗要因、全データ取得完了通知</t>
+  </si>
+  <si>
+    <t>・切断</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">★STP+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の場合、アプリ側で切断する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の場合、機器側から切断される</t>
+    </r>
+  </si>
+  <si>
+    <t>▲通知する結果の内容：切断完了</t>
+  </si>
+  <si>
+    <t>機器</t>
+  </si>
+  <si>
+    <t>血圧計</t>
+  </si>
+  <si>
+    <t>体組成計</t>
+  </si>
+  <si>
+    <t>接続モード</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STP+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">全件転送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STP+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">差分転送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>UDS Only</t>
+  </si>
+  <si>
+    <t>タスク</t>
+  </si>
+  <si>
+    <t>アドバタイズパケット解析</t>
+  </si>
+  <si>
+    <t>検知中、照合中、照合完了</t>
+  </si>
+  <si>
+    <t>接続</t>
+  </si>
+  <si>
+    <t>未実施、接続中、接続完了、接続失敗</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">CCCD</t>
     </r>
     <r>
@@ -509,371 +835,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">機器、接続モードから、必要となる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CCCD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">書き込みを行う。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">「一連動作テスト」の各タスクを管理・順次実施するクラスに、結果を通知</t>
-    </r>
-  </si>
-  <si>
-    <t>★必要となるserviceがサポートされていない場合のエラー</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">★characterstic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">読み書き時のエラー</t>
-    </r>
-  </si>
-  <si>
-    <t>●機器、接続モードの情報が必要</t>
-  </si>
-  <si>
-    <t>・認証</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.UserIndex, ConsentCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">を用いて、認証を行う。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">characterstic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">読み書きの通知リスナはbaseクラスでstaticで用意。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">継承した各クラスで、自分が処理すべき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">characterstic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">であるかを判別し、</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">★characterstic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">読み書き時のエラー、認証自体の結果</t>
-    </r>
-  </si>
-  <si>
-    <t>通知する。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">●UserIndex, ConsentCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の情報が必要</t>
-    </r>
-  </si>
-  <si>
-    <t>▲通知する結果の内容：認証成功or失敗、失敗要因</t>
-  </si>
-  <si>
-    <t>・データ取得</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">★CCCD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">書き込みにより、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">indicate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">で通知される</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STP+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の場合は、アプリ側から取得要求が必要？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">★characterstic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">読み書き時のエラー</t>
-    </r>
-  </si>
-  <si>
-    <t>▲通知する結果の内容：取得データ、取得成功、失敗要因、全データ取得完了通知</t>
-  </si>
-  <si>
-    <t>・切断</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">★STP+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の場合、アプリ側で切断する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の場合、機器側から切断される</t>
-    </r>
-  </si>
-  <si>
-    <t>▲通知する結果の内容：切断完了</t>
-  </si>
-  <si>
-    <t>機器</t>
-  </si>
-  <si>
-    <t>血圧計</t>
-  </si>
-  <si>
-    <t>体組成計</t>
-  </si>
-  <si>
-    <t>接続モード</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STP+(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">全件転送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STP+(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">差分転送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>UDS Only</t>
-  </si>
-  <si>
-    <t>タスク</t>
-  </si>
-  <si>
-    <t>アドバタイズパケット解析</t>
-  </si>
-  <si>
-    <t>接続</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CCCD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">書き込み</t>
-    </r>
-  </si>
-  <si>
     <t>認証</t>
   </si>
   <si>
+    <t>未実施、認証中、認証成功、認証失敗</t>
+  </si>
+  <si>
     <t>データ取得</t>
   </si>
   <si>
+    <t>未実施、取得中、取得完了</t>
+  </si>
+  <si>
     <t>切断</t>
+  </si>
+  <si>
+    <t>未実施、切断中、切断完了</t>
   </si>
   <si>
     <t>必要となるタスク</t>
@@ -940,14 +917,6 @@
 BloodPressure</t>
   </si>
   <si>
-    <t>CurrentTime
-Battery
-UserControlPoint
-Record Access Control Point
-BloodPressure
-</t>
-  </si>
-  <si>
     <t>UserControlPoint</t>
   </si>
   <si>
@@ -964,14 +933,6 @@
 WeightScale additional</t>
   </si>
   <si>
-    <t>CurrentTime
-Battery
-UserControlPoint
-Record Access Control Point
-WeightScale additional
-</t>
-  </si>
-  <si>
     <t>クラス</t>
   </si>
   <si>
@@ -999,10 +960,10 @@
     <t>SequentialTestDataDetailFragment</t>
   </si>
   <si>
-    <t>「一連動作テスト」をバックグランドで実行するサービス</t>
-  </si>
-  <si>
-    <t>SequentialTestBackgroundService</t>
+    <t>「一連動作テスト」を各タスクを管理・順次実施するサービス</t>
+  </si>
+  <si>
+    <t>SequentialTestManagerService</t>
   </si>
   <si>
     <t>「一連動作テスト」の各タスクを管理・順次実施するクラス</t>
@@ -1075,6 +1036,102 @@
   </si>
   <si>
     <t>・WeightScale additional</t>
+  </si>
+  <si>
+    <t>http://inon29.hateblo.jp/entry/2014/03/31/213229</t>
+  </si>
+  <si>
+    <t>service→UIの通知</t>
+  </si>
+  <si>
+    <t>　bindserviceでサービス起動</t>
+  </si>
+  <si>
+    <t>　UI側でserviceのインスタンスを取得し、通知リスナをserviceにセットしておく</t>
+  </si>
+  <si>
+    <t>1.機器、接続モード、UserIndex, ConsentCode, SequenceNoから、「一連動作テスト」に必要な各タスクを決定</t>
+  </si>
+  <si>
+    <t>タスクID</t>
+  </si>
+  <si>
+    <t>TASK_ID_SCAN = 1;</t>
+  </si>
+  <si>
+    <t>TASK_ID_CONNECT = 2;</t>
+  </si>
+  <si>
+    <t>TASK_ID_AUTH = 3;</t>
+  </si>
+  <si>
+    <t>TASK_ID_GET_DATA = 4;</t>
+  </si>
+  <si>
+    <t>TASK_ID_GET_DISCONNECT = 5;</t>
+  </si>
+  <si>
+    <t> UI側への通知方法 Broadcast?</t>
+  </si>
+  <si>
+    <t>intent.putExtra</t>
+  </si>
+  <si>
+    <t>■TASK_ID_SCANの場合</t>
+  </si>
+  <si>
+    <t>通知内容：タスク状況</t>
+  </si>
+  <si>
+    <t>■TASK_ID_CONNECTの場合</t>
+  </si>
+  <si>
+    <t>　　　　接続失敗時の要因</t>
+  </si>
+  <si>
+    <t>■TASK_ID_AUTHの場合</t>
+  </si>
+  <si>
+    <t>　　　　認証失敗時の要因</t>
+  </si>
+  <si>
+    <t>■TASK_ID_GET_DATAの場合</t>
+  </si>
+  <si>
+    <t>　　　　取得データ内容</t>
+  </si>
+  <si>
+    <t>         currentTime,</t>
+  </si>
+  <si>
+    <t>         Battery,</t>
+  </si>
+  <si>
+    <t>         BloodPressure</t>
+  </si>
+  <si>
+    <t>■TASK_ID_GET_DISCONNECTの場合</t>
+  </si>
+  <si>
+    <t>■現在実施中のタスク</t>
+  </si>
+  <si>
+    <t>service→fragmentに通知</t>
+  </si>
+  <si>
+    <t>notifyTaskResut(TaskResultBase result)</t>
+  </si>
+  <si>
+    <t>listItemとTaskResultを紐付けておく</t>
+  </si>
+  <si>
+    <t>TaskResultBase.getIdでどのlistに紐付けられているかを判別</t>
+  </si>
+  <si>
+    <t>TaskResultBase.getStatusで、listに表示する状況(String)を取得</t>
+  </si>
+  <si>
+    <t>TaskResultGetDataは、HashMapで各characteresticのデータを保持させておく</t>
   </si>
 </sst>
 </file>
@@ -1115,12 +1172,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="TakaoPGothic"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1129,6 +1180,13 @@
       <color rgb="FF000000"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1190,16 +1248,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1219,10 +1273,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1239,16 +1289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>2160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1257,7 +1307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466560" y="8740440"/>
+          <a:off x="385560" y="6931440"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1276,16 +1326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1294,8 +1344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="493200" y="8519760"/>
-          <a:ext cx="950760" cy="136800"/>
+          <a:off x="412200" y="6710760"/>
+          <a:ext cx="950400" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,15 +1365,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:colOff>25920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:colOff>133200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1332,8 +1382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1459440" y="8519760"/>
-          <a:ext cx="1685520" cy="136800"/>
+          <a:off x="1378440" y="6710760"/>
+          <a:ext cx="1685160" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,16 +1402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160560</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1370,8 +1420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="692280" y="8758440"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="611280" y="6949440"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,15 +1470,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:colOff>122040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1437,7 +1487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133440" y="8742240"/>
+          <a:off x="3052440" y="6933240"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1457,15 +1507,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:colOff>134280</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1474,8 +1524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3145680" y="8520840"/>
-          <a:ext cx="950760" cy="136800"/>
+          <a:off x="3064680" y="6711840"/>
+          <a:ext cx="950400" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,16 +1544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>66960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1512,8 +1562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4098240" y="8520480"/>
-          <a:ext cx="1685520" cy="136800"/>
+          <a:off x="4017240" y="6711480"/>
+          <a:ext cx="1685160" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,15 +1583,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:colOff>74880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>223200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:colOff>142200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1550,7 +1600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791320" y="8743320"/>
+          <a:off x="5710320" y="6934320"/>
           <a:ext cx="969120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1570,15 +1620,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:colOff>70920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:colOff>119520</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1587,8 +1637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5787360" y="8522640"/>
-          <a:ext cx="950760" cy="136800"/>
+          <a:off x="5706360" y="6713640"/>
+          <a:ext cx="950400" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,15 +1658,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:colOff>121320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1625,8 +1675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6739560" y="8520480"/>
-          <a:ext cx="1685520" cy="136800"/>
+          <a:off x="6658560" y="6711480"/>
+          <a:ext cx="1685160" cy="136440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,15 +1696,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,8 +1713,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3266280" y="8794440"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="3185280" y="6985440"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,16 +1762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>208440</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>214920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1730,8 +1780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924880" y="8760600"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="5843880" y="6951600"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,15 +1830,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:colOff>78120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1797,8 +1847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8493120" y="8536320"/>
-          <a:ext cx="683280" cy="257400"/>
+          <a:off x="8412120" y="6727320"/>
+          <a:ext cx="682920" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1826,15 +1876,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>124200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>43200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>99360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,7 +1893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476720" y="8740440"/>
+          <a:off x="1395720" y="6931440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1863,15 +1913,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:colOff>124560</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1880,8 +1930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2008800" y="8785440"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="1927800" y="6976440"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,16 +1970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>216360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1938,7 +1988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4073400" y="8740440"/>
+          <a:off x="3992400" y="6931440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1958,15 +2008,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1975,8 +2025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4605480" y="8785440"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="4524480" y="6976440"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>216360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2033,7 +2083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6778440" y="8740440"/>
+          <a:off x="6697440" y="6931440"/>
           <a:ext cx="1634040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2053,15 +2103,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2070,8 +2120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7310520" y="8785440"/>
-          <a:ext cx="683280" cy="267120"/>
+          <a:off x="7229520" y="6976440"/>
+          <a:ext cx="682920" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,45 +2158,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5248080" y="10322280"/>
-          <a:ext cx="369720" cy="3176280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800"/>
-            <a:gd name="adj2" fmla="val 10800"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2157,8 +2168,8 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2270,262 +2281,239 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>21</v>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
-        <v>22</v>
+      <c r="A32" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>23</v>
+      <c r="A33" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>24</v>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>26</v>
+      <c r="B37" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
-        <v>27</v>
+      <c r="B38" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
-        <v>28</v>
+      <c r="B39" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>40</v>
+      <c r="B59" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
+      <c r="B60" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>45</v>
+      <c r="Z64" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z65" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>46</v>
+      <c r="B66" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>48</v>
+      <c r="B67" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>49</v>
+      <c r="A69" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>50</v>
+      <c r="B70" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z74" s="2" t="s">
-        <v>54</v>
+      <c r="B73" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z75" s="0" t="s">
-        <v>55</v>
+      <c r="A75" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z76" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2550,8 +2538,8 @@
   </sheetPr>
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2569,131 +2557,146 @@
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="5" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,214 +2705,431 @@
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>76</v>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="5" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="6" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="6" t="s">
-        <v>126</v>
+      <c r="A51" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
